--- a/input data/Config.xlsx
+++ b/input data/Config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yassin El Fadili\Desktop\input data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yassin El Fadili\Desktop\uipathRobot\input data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>Name</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>PDF_Documents_Path</t>
+  </si>
+  <si>
+    <t>This document will be used to save downoaded pdf files inside it</t>
   </si>
 </sst>
 </file>
@@ -524,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z995"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -620,6 +623,9 @@
       </c>
       <c r="B6" t="s">
         <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
